--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1274.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1274.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9836039832719821</v>
+        <v>1.145336747169495</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.126478672027588</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>10.18478012084961</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.534620046615601</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.280562281608582</v>
       </c>
     </row>
   </sheetData>
